--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
@@ -408,7 +408,7 @@
         <v>1.014853356731867</v>
       </c>
       <c r="C3">
-        <v>0.8919244252484637</v>
+        <v>0.8919244252484636</v>
       </c>
       <c r="D3">
         <v>0.9811871683151279</v>
@@ -425,10 +425,10 @@
         <v>0.9194823970570338</v>
       </c>
       <c r="C4">
-        <v>0.7991554944826501</v>
+        <v>0.79915549448265</v>
       </c>
       <c r="D4">
-        <v>0.9172464259512356</v>
+        <v>0.9172464259512354</v>
       </c>
       <c r="E4">
         <v>0.9177789048478581</v>
@@ -448,7 +448,7 @@
         <v>0.9172464259512356</v>
       </c>
       <c r="E5">
-        <v>0.9177789048478578</v>
+        <v>0.9177789048478581</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7767404571493538</v>
+        <v>0.776740457149354</v>
       </c>
       <c r="C8">
         <v>0.7032662463243646</v>
@@ -516,7 +516,7 @@
         <v>0.686123856112789</v>
       </c>
       <c r="E9">
-        <v>0.7376280029799814</v>
+        <v>0.7376280029799817</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7767404571493538</v>
+        <v>0.7767404571493539</v>
       </c>
       <c r="C10">
         <v>0.7032662463243646</v>
@@ -561,13 +561,13 @@
         <v>0.8438106936544495</v>
       </c>
       <c r="C12">
-        <v>0.7551848416443132</v>
+        <v>0.755184841644313</v>
       </c>
       <c r="D12">
         <v>0.8820845025553083</v>
       </c>
       <c r="E12">
-        <v>0.9031711616252324</v>
+        <v>0.9031711616252325</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -581,10 +581,10 @@
         <v>0.8919244252484636</v>
       </c>
       <c r="D13">
-        <v>0.9811871683151278</v>
+        <v>0.981187168315128</v>
       </c>
       <c r="E13">
-        <v>0.9656026623575525</v>
+        <v>0.9656026623575524</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -595,13 +595,13 @@
         <v>0.8438106936544495</v>
       </c>
       <c r="C14">
-        <v>0.7551848416443132</v>
+        <v>0.755184841644313</v>
       </c>
       <c r="D14">
         <v>0.8820845025553083</v>
       </c>
       <c r="E14">
-        <v>0.9031711616252323</v>
+        <v>0.9031711616252325</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7767404571493538</v>
+        <v>0.776740457149354</v>
       </c>
       <c r="C15">
         <v>0.7032662463243646</v>
@@ -626,10 +626,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7231540553317158</v>
+        <v>0.7231540553317161</v>
       </c>
       <c r="C16">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D16">
         <v>0.7502460758510595</v>
@@ -649,7 +649,7 @@
         <v>0.7551848416443133</v>
       </c>
       <c r="D17">
-        <v>0.8820845025553085</v>
+        <v>0.8820845025553083</v>
       </c>
       <c r="E17">
         <v>0.9031711616252325</v>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.014853356731867</v>
+        <v>1.014853356731868</v>
       </c>
       <c r="C18">
         <v>0.8919244252484636</v>
@@ -669,7 +669,7 @@
         <v>0.9811871683151279</v>
       </c>
       <c r="E18">
-        <v>0.9656026623575527</v>
+        <v>0.9656026623575524</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,7 +680,7 @@
         <v>0.7231540553317158</v>
       </c>
       <c r="C19">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D19">
         <v>0.7502460758510594</v>
@@ -694,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.723154055331716</v>
+        <v>0.7231540553317158</v>
       </c>
       <c r="C20">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D20">
         <v>0.7502460758510594</v>
@@ -714,7 +714,7 @@
         <v>0.7231540553317158</v>
       </c>
       <c r="C21">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D21">
         <v>0.7502460758510595</v>
@@ -751,10 +751,10 @@
         <v>0.8087796434414749</v>
       </c>
       <c r="D23">
-        <v>0.8917848118081717</v>
+        <v>0.8917848118081716</v>
       </c>
       <c r="E23">
-        <v>0.9000369486989319</v>
+        <v>0.9000369486989317</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.7907492638881192</v>
+        <v>0.7907492638881193</v>
       </c>
       <c r="C24">
-        <v>0.6628649134602578</v>
+        <v>0.662864913460258</v>
       </c>
       <c r="D24">
-        <v>0.7568904235357243</v>
+        <v>0.7568904235357242</v>
       </c>
       <c r="E24">
-        <v>0.7883237852583876</v>
+        <v>0.7883237852583878</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.7907492638881194</v>
+        <v>0.7907492638881195</v>
       </c>
       <c r="C25">
         <v>0.6628649134602579</v>
@@ -796,10 +796,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.7907492638881193</v>
+        <v>0.7907492638881194</v>
       </c>
       <c r="C26">
-        <v>0.6628649134602579</v>
+        <v>0.6628649134602581</v>
       </c>
       <c r="D26">
         <v>0.7568904235357242</v>
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692357</v>
       </c>
       <c r="C27">
-        <v>0.8466889498839595</v>
+        <v>0.8466889498839594</v>
       </c>
       <c r="D27">
-        <v>0.9452876597114144</v>
+        <v>0.9452876597114142</v>
       </c>
       <c r="E27">
         <v>0.9314571601196563</v>
@@ -830,13 +830,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692357</v>
       </c>
       <c r="C28">
-        <v>0.8466889498839595</v>
+        <v>0.8466889498839594</v>
       </c>
       <c r="D28">
-        <v>0.9452876597114145</v>
+        <v>0.9452876597114144</v>
       </c>
       <c r="E28">
         <v>0.9314571601196561</v>
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692359</v>
       </c>
       <c r="C29">
-        <v>0.8466889498839596</v>
+        <v>0.8466889498839595</v>
       </c>
       <c r="D29">
-        <v>0.9452876597114144</v>
+        <v>0.9452876597114143</v>
       </c>
       <c r="E29">
         <v>0.9314571601196563</v>
@@ -867,7 +867,7 @@
         <v>0.715124162554732</v>
       </c>
       <c r="C30">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280312</v>
       </c>
       <c r="D30">
         <v>0.8673533432090015</v>
@@ -884,13 +884,13 @@
         <v>0.715124162554732</v>
       </c>
       <c r="C31">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280311</v>
       </c>
       <c r="D31">
         <v>0.8673533432090015</v>
       </c>
       <c r="E31">
-        <v>0.843560302613681</v>
+        <v>0.8435603026136812</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -901,7 +901,7 @@
         <v>1.037022958236438</v>
       </c>
       <c r="C32">
-        <v>0.9852373311551232</v>
+        <v>0.9852373311551231</v>
       </c>
       <c r="D32">
         <v>1.001544965429997</v>
@@ -918,10 +918,10 @@
         <v>0.715124162554732</v>
       </c>
       <c r="C33">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280312</v>
       </c>
       <c r="D33">
-        <v>0.8673533432090015</v>
+        <v>0.8673533432090014</v>
       </c>
       <c r="E33">
         <v>0.843560302613681</v>
@@ -935,7 +935,7 @@
         <v>1.548528489494135</v>
       </c>
       <c r="C34">
-        <v>1.314695401626655</v>
+        <v>1.314695401626654</v>
       </c>
       <c r="D34">
         <v>1.200374229551632</v>
@@ -966,13 +966,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.8022288457494623</v>
+        <v>0.8022288457494624</v>
       </c>
       <c r="C36">
-        <v>0.8396042331955268</v>
+        <v>0.8396042331955266</v>
       </c>
       <c r="D36">
-        <v>0.9343950627466125</v>
+        <v>0.9343950627466124</v>
       </c>
       <c r="E36">
         <v>0.8907775348015283</v>
@@ -986,10 +986,10 @@
         <v>0.6913064944701471</v>
       </c>
       <c r="C37">
-        <v>0.7659175482450199</v>
+        <v>0.7659175482450198</v>
       </c>
       <c r="D37">
-        <v>0.8535417781963596</v>
+        <v>0.8535417781963593</v>
       </c>
       <c r="E37">
         <v>0.8313930562177926</v>
@@ -1003,7 +1003,7 @@
         <v>0.6913064944701471</v>
       </c>
       <c r="C38">
-        <v>0.7659175482450199</v>
+        <v>0.7659175482450197</v>
       </c>
       <c r="D38">
         <v>0.8535417781963596</v>
@@ -1020,7 +1020,7 @@
         <v>1.117375380511207</v>
       </c>
       <c r="C39">
-        <v>1.045425077393226</v>
+        <v>1.045425077393225</v>
       </c>
       <c r="D39">
         <v>1.039066556958522</v>
@@ -1040,7 +1040,7 @@
         <v>1.352674511224196</v>
       </c>
       <c r="D40">
-        <v>1.218317077840899</v>
+        <v>1.2183170778409</v>
       </c>
       <c r="E40">
         <v>1.059129121669153</v>
@@ -1071,13 +1071,13 @@
         <v>0.9487936305851022</v>
       </c>
       <c r="C42">
-        <v>0.914293659501641</v>
+        <v>0.9142936595016408</v>
       </c>
       <c r="D42">
         <v>0.9551585358297953</v>
       </c>
       <c r="E42">
-        <v>0.8933019822280538</v>
+        <v>0.8933019822280537</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8584530207135065</v>
+        <v>0.8584530207135064</v>
       </c>
       <c r="C45">
-        <v>0.8369292541112568</v>
+        <v>0.8369292541112566</v>
       </c>
       <c r="D45">
         <v>0.9092888261529274</v>
@@ -1136,10 +1136,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.01289936563613</v>
+        <v>1.012899365636131</v>
       </c>
       <c r="C46">
-        <v>0.9709807084503695</v>
+        <v>0.9709807084503693</v>
       </c>
       <c r="D46">
         <v>0.9898129572476392</v>
@@ -1193,10 +1193,10 @@
         <v>0.6516581943444714</v>
       </c>
       <c r="D49">
-        <v>0.7147364211694545</v>
+        <v>0.7147364211694542</v>
       </c>
       <c r="E49">
-        <v>0.7192204613277146</v>
+        <v>0.7192204613277144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1204,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.8748387367307755</v>
+        <v>0.8748387367307756</v>
       </c>
       <c r="C50">
         <v>0.7320301961512882</v>
@@ -1221,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.8069229011038347</v>
+        <v>0.8069229011038349</v>
       </c>
       <c r="C51">
         <v>0.6873009422390046</v>
@@ -1230,7 +1230,7 @@
         <v>0.7406315700471873</v>
       </c>
       <c r="E51">
-        <v>0.7562940347818741</v>
+        <v>0.7562940347818742</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.858246689382217</v>
+        <v>0.8582466893822172</v>
       </c>
       <c r="C52">
         <v>0.733516484959046</v>
@@ -1258,10 +1258,10 @@
         <v>0.6172542915224656</v>
       </c>
       <c r="C53">
-        <v>0.5652709338093561</v>
+        <v>0.5652709338093562</v>
       </c>
       <c r="D53">
-        <v>0.6462420668540958</v>
+        <v>0.6462420668540959</v>
       </c>
       <c r="E53">
         <v>0.6612096275538012</v>
@@ -1278,7 +1278,7 @@
         <v>0.5490668875609829</v>
       </c>
       <c r="D54">
-        <v>0.628207431610291</v>
+        <v>0.6282074316102909</v>
       </c>
       <c r="E54">
         <v>0.6421721255748382</v>
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.8748387367307754</v>
+        <v>0.8748387367307756</v>
       </c>
       <c r="C55">
         <v>0.7320301961512882</v>
       </c>
       <c r="D55">
-        <v>0.7877212935771316</v>
+        <v>0.7877212935771315</v>
       </c>
       <c r="E55">
         <v>0.8091042605531906</v>
@@ -1312,7 +1312,7 @@
         <v>0.8705204377280231</v>
       </c>
       <c r="D56">
-        <v>0.9036210944227143</v>
+        <v>0.9036210944227142</v>
       </c>
       <c r="E56">
         <v>0.8852224481801518</v>
@@ -1343,13 +1343,13 @@
         <v>0.9872957545986477</v>
       </c>
       <c r="C58">
-        <v>0.8227939434328606</v>
+        <v>0.8227939434328605</v>
       </c>
       <c r="D58">
         <v>0.8989029539750909</v>
       </c>
       <c r="E58">
-        <v>0.897489688129931</v>
+        <v>0.8974896881299309</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.9872957545986477</v>
+        <v>0.9872957545986478</v>
       </c>
       <c r="C59">
-        <v>0.8227939434328606</v>
+        <v>0.8227939434328605</v>
       </c>
       <c r="D59">
         <v>0.8989029539750909</v>
@@ -1374,13 +1374,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.7439424166339579</v>
+        <v>0.743942416633958</v>
       </c>
       <c r="C60">
         <v>0.6195186915434254</v>
       </c>
       <c r="D60">
-        <v>0.7182836340782192</v>
+        <v>0.7182836340782193</v>
       </c>
       <c r="E60">
         <v>0.7548651402726241</v>
@@ -1391,13 +1391,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.7439424166339578</v>
+        <v>0.7439424166339579</v>
       </c>
       <c r="C61">
         <v>0.6195186915434255</v>
       </c>
       <c r="D61">
-        <v>0.7182836340782192</v>
+        <v>0.7182836340782194</v>
       </c>
       <c r="E61">
         <v>0.7548651402726241</v>
@@ -1414,7 +1414,7 @@
         <v>0.4620837887856226</v>
       </c>
       <c r="D62">
-        <v>0.6319116742417837</v>
+        <v>0.6319116742417836</v>
       </c>
       <c r="E62">
         <v>0.7072412381265396</v>
@@ -1431,10 +1431,10 @@
         <v>0.4620837887856226</v>
       </c>
       <c r="D63">
-        <v>0.6319116742417838</v>
+        <v>0.6319116742417837</v>
       </c>
       <c r="E63">
-        <v>0.7072412381265396</v>
+        <v>0.7072412381265395</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1482,7 +1482,7 @@
         <v>1.024593782095347</v>
       </c>
       <c r="D66">
-        <v>0.9709755198820968</v>
+        <v>0.9709755198820967</v>
       </c>
       <c r="E66">
         <v>0.8941287879763538</v>
@@ -1499,10 +1499,10 @@
         <v>1.284329426942385</v>
       </c>
       <c r="D67">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="E67">
-        <v>0.9956893001380466</v>
+        <v>0.9956893001380465</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1516,7 +1516,7 @@
         <v>1.024593782095347</v>
       </c>
       <c r="D68">
-        <v>0.9709755198820967</v>
+        <v>0.9709755198820965</v>
       </c>
       <c r="E68">
         <v>0.8941287879763536</v>
@@ -1536,7 +1536,7 @@
         <v>1.115640699744482</v>
       </c>
       <c r="E69">
-        <v>0.9956893001380465</v>
+        <v>0.9956893001380464</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1550,7 +1550,7 @@
         <v>1.284329426942385</v>
       </c>
       <c r="D70">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="E70">
         <v>0.9956893001380466</v>
@@ -1652,7 +1652,7 @@
         <v>1.284329426942385</v>
       </c>
       <c r="D76">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="E76">
         <v>0.9956893001380466</v>
@@ -1720,7 +1720,7 @@
         <v>1.290843852167687</v>
       </c>
       <c r="D80">
-        <v>1.126507950436527</v>
+        <v>1.126507950436526</v>
       </c>
       <c r="E80">
         <v>0.9945548979600238</v>
@@ -1774,7 +1774,7 @@
         <v>1.061182528806353</v>
       </c>
       <c r="E83">
-        <v>0.9320452627871094</v>
+        <v>0.9320452627871093</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>1.061182528806353</v>
       </c>
       <c r="E84">
-        <v>0.9320452627871092</v>
+        <v>0.9320452627871091</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,7 +1802,7 @@
         <v>1.644154956905954</v>
       </c>
       <c r="C85">
-        <v>1.433625766039588</v>
+        <v>1.433625766039587</v>
       </c>
       <c r="D85">
         <v>1.197880779125354</v>
@@ -1833,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.66825316994015</v>
+        <v>1.668253169940149</v>
       </c>
       <c r="C87">
         <v>1.478878448131658</v>
@@ -1850,7 +1850,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.66825316994015</v>
+        <v>1.668253169940149</v>
       </c>
       <c r="C88">
         <v>1.478878448131658</v>
@@ -1873,7 +1873,7 @@
         <v>1.478878448131658</v>
       </c>
       <c r="D89">
-        <v>1.223571670379922</v>
+        <v>1.223571670379921</v>
       </c>
       <c r="E89">
         <v>1.034681062605149</v>
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.5665155401955204</v>
+        <v>0.5665155401955205</v>
       </c>
       <c r="C90">
         <v>0.6780883528534802</v>
       </c>
       <c r="D90">
-        <v>0.7317422557803466</v>
+        <v>0.7317422557803465</v>
       </c>
       <c r="E90">
         <v>0.7401853542396303</v>
@@ -1901,7 +1901,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.5462991816361824</v>
+        <v>0.5462991816361825</v>
       </c>
       <c r="C91">
         <v>0.6533158173678993</v>
@@ -1910,7 +1910,7 @@
         <v>0.7074377981121512</v>
       </c>
       <c r="E91">
-        <v>0.7171141525481364</v>
+        <v>0.7171141525481363</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.4599302125039883</v>
+        <v>0.4599302125039884</v>
       </c>
       <c r="C92">
         <v>0.5474818044619476</v>
       </c>
       <c r="D92">
-        <v>0.6036035221243297</v>
+        <v>0.6036035221243296</v>
       </c>
       <c r="E92">
         <v>0.6185486319136169</v>
@@ -1938,10 +1938,10 @@
         <v>0.7228109832755003</v>
       </c>
       <c r="C93">
-        <v>0.8696082251672301</v>
+        <v>0.8696082251672299</v>
       </c>
       <c r="D93">
-        <v>0.9196433542358122</v>
+        <v>0.919643354235812</v>
       </c>
       <c r="E93">
         <v>0.9185519814527224</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.3204792948650775</v>
+        <v>0.3204792948650776</v>
       </c>
       <c r="C94">
         <v>0.3294019262700647</v>
       </c>
       <c r="D94">
-        <v>0.3573012312662389</v>
+        <v>0.3573012312662388</v>
       </c>
       <c r="E94">
-        <v>0.3946925908602328</v>
+        <v>0.3946925908602327</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.7085534768826349</v>
+        <v>0.708553476882635</v>
       </c>
       <c r="C95">
         <v>0.8521374931352237</v>
       </c>
       <c r="D95">
-        <v>0.9025027322211046</v>
+        <v>0.9025027322211044</v>
       </c>
       <c r="E95">
         <v>0.9022811083060043</v>
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.489223749536334</v>
+        <v>0.4892237495363341</v>
       </c>
       <c r="C96">
-        <v>0.5833772494058036</v>
+        <v>0.5833772494058035</v>
       </c>
       <c r="D96">
         <v>0.63882072153562</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.7228109832755002</v>
+        <v>0.7228109832755003</v>
       </c>
       <c r="C97">
-        <v>0.8696082251672301</v>
+        <v>0.8696082251672299</v>
       </c>
       <c r="D97">
         <v>0.9196433542358122</v>
@@ -2020,10 +2020,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.6713079862767561</v>
+        <v>0.6713079862767564</v>
       </c>
       <c r="C98">
-        <v>0.843984930546767</v>
+        <v>0.8439849305467669</v>
       </c>
       <c r="D98">
         <v>0.916418412553143</v>
@@ -2037,13 +2037,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.6087354834272467</v>
+        <v>0.6087354834272468</v>
       </c>
       <c r="C99">
-        <v>0.764603035793712</v>
+        <v>0.7646030357937119</v>
       </c>
       <c r="D99">
-        <v>0.8373013165812483</v>
+        <v>0.8373013165812482</v>
       </c>
       <c r="E99">
         <v>0.8474599285152661</v>
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.6473015390682337</v>
+        <v>0.6473015390682338</v>
       </c>
       <c r="C100">
-        <v>0.7790472858239665</v>
+        <v>0.7790472858239664</v>
       </c>
       <c r="D100">
-        <v>0.8431059131622176</v>
+        <v>0.8431059131622174</v>
       </c>
       <c r="E100">
         <v>0.8511033001201496</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.6061794825915197</v>
+        <v>0.6061794825915198</v>
       </c>
       <c r="C101">
         <v>0.7277642943846263</v>
       </c>
       <c r="D101">
-        <v>0.7919799793659287</v>
+        <v>0.7919799793659286</v>
       </c>
       <c r="E101">
         <v>0.802697896972157</v>
@@ -2091,10 +2091,10 @@
         <v>0.6855463454082965</v>
       </c>
       <c r="C102">
-        <v>0.8267420813711509</v>
+        <v>0.8267420813711508</v>
       </c>
       <c r="D102">
-        <v>0.8906546401598848</v>
+        <v>0.8906546401598847</v>
       </c>
       <c r="E102">
         <v>0.8961218480192782</v>
@@ -2105,10 +2105,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.6357777754164232</v>
+        <v>0.6357777754164233</v>
       </c>
       <c r="C103">
-        <v>0.8229717312355983</v>
+        <v>0.8229717312355981</v>
       </c>
       <c r="D103">
         <v>0.90846073271464</v>
@@ -2125,7 +2125,7 @@
         <v>0.6357777754164233</v>
       </c>
       <c r="C104">
-        <v>0.8229717312355983</v>
+        <v>0.8229717312355981</v>
       </c>
       <c r="D104">
         <v>0.9084607327146399</v>
@@ -2142,7 +2142,7 @@
         <v>1.055169501169984</v>
       </c>
       <c r="C105">
-        <v>1.141998909374601</v>
+        <v>1.1419989093746</v>
       </c>
       <c r="D105">
         <v>1.119186286968631</v>
@@ -2196,7 +2196,7 @@
         <v>1.742724731195586</v>
       </c>
       <c r="D108">
-        <v>1.41060277217852</v>
+        <v>1.410602772178519</v>
       </c>
       <c r="E108">
         <v>1.153219233498052</v>
@@ -2247,7 +2247,7 @@
         <v>1.030179667275047</v>
       </c>
       <c r="D111">
-        <v>1.033891823134668</v>
+        <v>1.033891823134667</v>
       </c>
       <c r="E111">
         <v>0.9436008428277851</v>
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.6600113967162298</v>
+        <v>0.6600113967162299</v>
       </c>
       <c r="C112">
-        <v>0.8436311624632158</v>
+        <v>0.8436311624632156</v>
       </c>
       <c r="D112">
         <v>0.9223619664085081</v>
       </c>
       <c r="E112">
-        <v>0.9273670538777622</v>
+        <v>0.9273670538777623</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2309,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.6447823486370703</v>
+        <v>0.6447823486370704</v>
       </c>
       <c r="C115">
-        <v>0.8242279866453801</v>
+        <v>0.8242279866453799</v>
       </c>
       <c r="D115">
         <v>0.90315159054048</v>
@@ -2326,10 +2326,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.6600113967162298</v>
+        <v>0.6600113967162299</v>
       </c>
       <c r="C116">
-        <v>0.8436311624632159</v>
+        <v>0.8436311624632156</v>
       </c>
       <c r="D116">
         <v>0.9223619664085082</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.049571862669925</v>
+        <v>2.049571862669926</v>
       </c>
       <c r="C118">
         <v>1.766480432535267</v>
@@ -2383,7 +2383,7 @@
         <v>1.525918017772669</v>
       </c>
       <c r="D119">
-        <v>1.320096613995121</v>
+        <v>1.32009661399512</v>
       </c>
       <c r="E119">
         <v>1.112613244883676</v>
@@ -2397,13 +2397,13 @@
         <v>0.6632233894738888</v>
       </c>
       <c r="C120">
-        <v>0.8375338038300769</v>
+        <v>0.8375338038300766</v>
       </c>
       <c r="D120">
-        <v>0.9123595922260076</v>
+        <v>0.9123595922260075</v>
       </c>
       <c r="E120">
-        <v>0.9178839031265434</v>
+        <v>0.9178839031265433</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>0.6632233894738888</v>
       </c>
       <c r="C121">
-        <v>0.8375338038300767</v>
+        <v>0.8375338038300766</v>
       </c>
       <c r="D121">
-        <v>0.9123595922260076</v>
+        <v>0.9123595922260075</v>
       </c>
       <c r="E121">
-        <v>0.9178839031265436</v>
+        <v>0.9178839031265433</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2431,7 +2431,7 @@
         <v>1.070079711962772</v>
       </c>
       <c r="C122">
-        <v>1.133950403655017</v>
+        <v>1.133950403655016</v>
       </c>
       <c r="D122">
         <v>1.107473755877477</v>
@@ -2454,7 +2454,7 @@
         <v>1.084589736159763</v>
       </c>
       <c r="E123">
-        <v>0.9780707116689227</v>
+        <v>0.9780707116689226</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2465,7 +2465,7 @@
         <v>1.070079711962772</v>
       </c>
       <c r="C124">
-        <v>1.133950403655017</v>
+        <v>1.133950403655016</v>
       </c>
       <c r="D124">
         <v>1.107473755877477</v>
@@ -2505,7 +2505,7 @@
         <v>1.238883808655907</v>
       </c>
       <c r="E126">
-        <v>1.057249089956528</v>
+        <v>1.057249089956529</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2533,10 +2533,10 @@
         <v>1.923907283602854</v>
       </c>
       <c r="C128">
-        <v>1.637784506708869</v>
+        <v>1.637784506708868</v>
       </c>
       <c r="D128">
-        <v>1.354597248776856</v>
+        <v>1.354597248776855</v>
       </c>
       <c r="E128">
         <v>1.128044380190993</v>
@@ -2550,7 +2550,7 @@
         <v>1.923907283602854</v>
       </c>
       <c r="C129">
-        <v>1.637784506708869</v>
+        <v>1.637784506708868</v>
       </c>
       <c r="D129">
         <v>1.354597248776856</v>
@@ -2564,10 +2564,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.6690245584568527</v>
+        <v>0.6690245584568528</v>
       </c>
       <c r="C130">
-        <v>0.8166552298807003</v>
+        <v>0.8166552298807001</v>
       </c>
       <c r="D130">
         <v>0.8754227499956223</v>
@@ -2584,13 +2584,13 @@
         <v>0.4812739457083123</v>
       </c>
       <c r="C131">
-        <v>0.5878374243040506</v>
+        <v>0.5878374243040505</v>
       </c>
       <c r="D131">
-        <v>0.6465591726721708</v>
+        <v>0.6465591726721707</v>
       </c>
       <c r="E131">
-        <v>0.6618258292004531</v>
+        <v>0.6618258292004529</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,7 +2601,7 @@
         <v>0.495268834454455</v>
       </c>
       <c r="C132">
-        <v>0.6048934524325479</v>
+        <v>0.6048934524325478</v>
       </c>
       <c r="D132">
         <v>0.6636186126164531</v>
@@ -2618,7 +2618,7 @@
         <v>0.5619751636140949</v>
       </c>
       <c r="C133">
-        <v>0.6861906350778342</v>
+        <v>0.686190635077834</v>
       </c>
       <c r="D133">
         <v>0.7449320576065787</v>
@@ -2635,10 +2635,10 @@
         <v>0.513676950382612</v>
       </c>
       <c r="C134">
-        <v>0.610989826715675</v>
+        <v>0.6109898267156749</v>
       </c>
       <c r="D134">
-        <v>0.6697362762113075</v>
+        <v>0.6697362762113074</v>
       </c>
       <c r="E134">
         <v>0.681853537607273</v>
@@ -2649,10 +2649,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.6807388412297999</v>
+        <v>0.6807388412298001</v>
       </c>
       <c r="C135">
-        <v>0.8201639171955442</v>
+        <v>0.8201639171955439</v>
       </c>
       <c r="D135">
         <v>0.8735725139430311</v>
@@ -2666,13 +2666,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.7405085207100328</v>
+        <v>0.7405085207100329</v>
       </c>
       <c r="C136">
-        <v>0.8255454955751343</v>
+        <v>0.8255454955751341</v>
       </c>
       <c r="D136">
-        <v>0.8634802264002219</v>
+        <v>0.8634802264002218</v>
       </c>
       <c r="E136">
         <v>0.8585129228893609</v>
@@ -2686,10 +2686,10 @@
         <v>0.7706329526191041</v>
       </c>
       <c r="C137">
-        <v>0.8612224733864604</v>
+        <v>0.86122247338646</v>
       </c>
       <c r="D137">
-        <v>0.898380488436385</v>
+        <v>0.8983804884363848</v>
       </c>
       <c r="E137">
         <v>0.892011887807275</v>
@@ -2700,16 +2700,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.770632952619104</v>
+        <v>0.7706329526191041</v>
       </c>
       <c r="C138">
-        <v>0.8612224733864604</v>
+        <v>0.86122247338646</v>
       </c>
       <c r="D138">
-        <v>0.8983804884363848</v>
+        <v>0.8983804884363847</v>
       </c>
       <c r="E138">
-        <v>0.892011887807275</v>
+        <v>0.8920118878072751</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2720,10 +2720,10 @@
         <v>0.721373310508385</v>
       </c>
       <c r="C139">
-        <v>0.8445969305697978</v>
+        <v>0.8445969305697976</v>
       </c>
       <c r="D139">
-        <v>0.8996574573354384</v>
+        <v>0.8996574573354383</v>
       </c>
       <c r="E139">
         <v>0.8985500747606413</v>
@@ -2740,10 +2740,10 @@
         <v>1.025317011058128</v>
       </c>
       <c r="D140">
-        <v>0.8762538553752238</v>
+        <v>0.8762538553752236</v>
       </c>
       <c r="E140">
-        <v>0.6640237971147112</v>
+        <v>0.664023797114711</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,7 +2754,7 @@
         <v>0.721373310508385</v>
       </c>
       <c r="C141">
-        <v>0.8445969305697978</v>
+        <v>0.8445969305697976</v>
       </c>
       <c r="D141">
         <v>0.8996574573354384</v>
@@ -2771,13 +2771,13 @@
         <v>0.7078748108107729</v>
       </c>
       <c r="C142">
-        <v>0.8281465536789916</v>
+        <v>0.8281465536789915</v>
       </c>
       <c r="D142">
-        <v>0.8833552656810661</v>
+        <v>0.8833552656810659</v>
       </c>
       <c r="E142">
-        <v>0.8829864137572934</v>
+        <v>0.8829864137572935</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,16 +2785,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.8260839202952109</v>
+        <v>0.8260839202952112</v>
       </c>
       <c r="C143">
-        <v>0.847720487009222</v>
+        <v>0.8477204870092219</v>
       </c>
       <c r="D143">
-        <v>0.8349019260623284</v>
+        <v>0.8349019260623283</v>
       </c>
       <c r="E143">
-        <v>0.7815024613940764</v>
+        <v>0.7815024613940765</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2808,7 +2808,7 @@
         <v>1.128423102430741</v>
       </c>
       <c r="D144">
-        <v>1.089237964936503</v>
+        <v>1.089237964936502</v>
       </c>
       <c r="E144">
         <v>0.9796097635620681</v>
@@ -2825,7 +2825,7 @@
         <v>1.128423102430741</v>
       </c>
       <c r="D145">
-        <v>1.089237964936503</v>
+        <v>1.089237964936502</v>
       </c>
       <c r="E145">
         <v>0.9796097635620681</v>
@@ -2873,13 +2873,13 @@
         <v>1.084047037749855</v>
       </c>
       <c r="C148">
-        <v>1.07557519907381</v>
+        <v>1.075575199073809</v>
       </c>
       <c r="D148">
         <v>1.040824729748122</v>
       </c>
       <c r="E148">
-        <v>0.9463830399474022</v>
+        <v>0.9463830399474024</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,16 +2887,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="C149">
-        <v>0.7555084861403504</v>
+        <v>0.75550848614035</v>
       </c>
       <c r="D149">
         <v>0.8320037556894082</v>
       </c>
       <c r="E149">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2904,16 +2904,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="C150">
-        <v>0.7555084861403503</v>
+        <v>0.75550848614035</v>
       </c>
       <c r="D150">
         <v>0.8320037556894082</v>
       </c>
       <c r="E150">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>0.5826124443156556</v>
       </c>
       <c r="C151">
-        <v>0.7017565620524407</v>
+        <v>0.7017565620524404</v>
       </c>
       <c r="D151">
         <v>0.7781202075410034</v>
       </c>
       <c r="E151">
-        <v>0.7939635941214273</v>
+        <v>0.7939635941214271</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="C152">
         <v>0.7555084861403502</v>
@@ -2947,7 +2947,7 @@
         <v>0.8320037556894082</v>
       </c>
       <c r="E152">
-        <v>0.8455644876864356</v>
+        <v>0.8455644876864354</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2992,10 +2992,10 @@
         <v>0.9571391840983718</v>
       </c>
       <c r="C155">
-        <v>0.9529220720395732</v>
+        <v>0.952922072039573</v>
       </c>
       <c r="D155">
-        <v>0.9557200179857683</v>
+        <v>0.9557200179857682</v>
       </c>
       <c r="E155">
         <v>0.8887960021042324</v>
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.957139184098372</v>
+        <v>0.9571391840983718</v>
       </c>
       <c r="C156">
-        <v>0.9529220720395731</v>
+        <v>0.952922072039573</v>
       </c>
       <c r="D156">
-        <v>0.9557200179857683</v>
+        <v>0.9557200179857682</v>
       </c>
       <c r="E156">
-        <v>0.8887960021042324</v>
+        <v>0.8887960021042325</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,13 +3026,13 @@
         <v>1.28621067282914</v>
       </c>
       <c r="C157">
-        <v>1.147416219130683</v>
+        <v>1.147416219130682</v>
       </c>
       <c r="D157">
-        <v>1.081298598781284</v>
+        <v>1.081298598781283</v>
       </c>
       <c r="E157">
-        <v>0.9619220450346428</v>
+        <v>0.9619220450346427</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3043,13 +3043,13 @@
         <v>0.9454910647023306</v>
       </c>
       <c r="C158">
-        <v>0.9829525946168748</v>
+        <v>0.9829525946168746</v>
       </c>
       <c r="D158">
-        <v>0.9903323984232523</v>
+        <v>0.9903323984232522</v>
       </c>
       <c r="E158">
-        <v>0.9159837488471971</v>
+        <v>0.9159837488471972</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3060,13 +3060,13 @@
         <v>0.5833619372336534</v>
       </c>
       <c r="C159">
-        <v>0.7135539281776071</v>
+        <v>0.713553928177607</v>
       </c>
       <c r="D159">
-        <v>0.8000780613148502</v>
+        <v>0.8000780613148499</v>
       </c>
       <c r="E159">
-        <v>0.8219910619208574</v>
+        <v>0.8219910619208572</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3074,13 +3074,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.8831516095680501</v>
+        <v>0.8831516095680499</v>
       </c>
       <c r="C160">
-        <v>0.9320716539168705</v>
+        <v>0.9320716539168703</v>
       </c>
       <c r="D160">
-        <v>0.9574278444170043</v>
+        <v>0.9574278444170041</v>
       </c>
       <c r="E160">
         <v>0.8941685198673299</v>
@@ -3091,10 +3091,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.225626095441699</v>
+        <v>1.2256260954417</v>
       </c>
       <c r="C161">
-        <v>1.154321410528382</v>
+        <v>1.154321410528381</v>
       </c>
       <c r="D161">
         <v>1.105697301062049</v>
@@ -3125,13 +3125,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.5831070830971828</v>
+        <v>0.583107083097183</v>
       </c>
       <c r="C163">
-        <v>0.7288553448871082</v>
+        <v>0.7288553448871081</v>
       </c>
       <c r="D163">
-        <v>0.8222001297586147</v>
+        <v>0.8222001297586146</v>
       </c>
       <c r="E163">
         <v>0.841316525674625</v>
@@ -3151,7 +3151,7 @@
         <v>1.014447092390752</v>
       </c>
       <c r="E164">
-        <v>0.9344507525928369</v>
+        <v>0.9344507525928371</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3162,10 +3162,10 @@
         <v>0.8616668934371023</v>
       </c>
       <c r="C165">
-        <v>0.9341325431939932</v>
+        <v>0.9341325431939931</v>
       </c>
       <c r="D165">
-        <v>0.9693279779612772</v>
+        <v>0.9693279779612771</v>
       </c>
       <c r="E165">
         <v>0.9037889395852654</v>
@@ -3179,13 +3179,13 @@
         <v>0.8616668934371023</v>
       </c>
       <c r="C166">
-        <v>0.9341325431939932</v>
+        <v>0.934132543193993</v>
       </c>
       <c r="D166">
-        <v>0.9693279779612771</v>
+        <v>0.969327977961277</v>
       </c>
       <c r="E166">
-        <v>0.9037889395852655</v>
+        <v>0.9037889395852654</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3219,7 +3219,7 @@
         <v>1.298340092833152</v>
       </c>
       <c r="E168">
-        <v>1.100180095969577</v>
+        <v>1.100180095969576</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3230,7 +3230,7 @@
         <v>0.7207826833996979</v>
       </c>
       <c r="C169">
-        <v>0.866177999369225</v>
+        <v>0.8661779993692249</v>
       </c>
       <c r="D169">
         <v>0.9089516033754677</v>
@@ -3250,7 +3250,7 @@
         <v>0.7365869196678867</v>
       </c>
       <c r="D170">
-        <v>0.7989421004600009</v>
+        <v>0.7989421004600008</v>
       </c>
       <c r="E170">
         <v>0.8097171640555926</v>
@@ -3264,10 +3264,10 @@
         <v>0.7311413018063792</v>
       </c>
       <c r="C171">
-        <v>0.8788136128766345</v>
+        <v>0.8788136128766343</v>
       </c>
       <c r="D171">
-        <v>0.9213093245628304</v>
+        <v>0.9213093245628303</v>
       </c>
       <c r="E171">
         <v>0.9180622263052021</v>
@@ -3278,10 +3278,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.6769915983984017</v>
+        <v>0.6769915983984018</v>
       </c>
       <c r="C172">
-        <v>0.8289558241902226</v>
+        <v>0.8289558241902225</v>
       </c>
       <c r="D172">
         <v>0.8908347104759486</v>
@@ -3295,10 +3295,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.5404129180302623</v>
+        <v>0.5404129180302624</v>
       </c>
       <c r="C173">
-        <v>0.6610201418732076</v>
+        <v>0.6610201418732073</v>
       </c>
       <c r="D173">
         <v>0.7237649780511375</v>
@@ -3312,16 +3312,16 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.4992673208676534</v>
+        <v>0.4992673208676535</v>
       </c>
       <c r="C174">
-        <v>0.6076889277924681</v>
+        <v>0.6076889277924679</v>
       </c>
       <c r="D174">
-        <v>0.6696618415842078</v>
+        <v>0.6696618415842077</v>
       </c>
       <c r="E174">
-        <v>0.6839168939547547</v>
+        <v>0.6839168939547546</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.727220016585949</v>
+        <v>0.7272200165859491</v>
       </c>
       <c r="C178">
         <v>0.8566532199873632</v>
       </c>
       <c r="D178">
-        <v>0.9048776569096353</v>
+        <v>0.9048776569096352</v>
       </c>
       <c r="E178">
-        <v>0.8992091070167153</v>
+        <v>0.8992091070167151</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3454,10 +3454,10 @@
         <v>1.515330364181895</v>
       </c>
       <c r="D182">
-        <v>1.289418552041112</v>
+        <v>1.289418552041111</v>
       </c>
       <c r="E182">
-        <v>1.08672853703615</v>
+        <v>1.086728537036149</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3638,10 +3638,10 @@
         <v>0.6855463454082965</v>
       </c>
       <c r="C193">
-        <v>0.8267420813711509</v>
+        <v>0.8267420813711508</v>
       </c>
       <c r="D193">
-        <v>0.8906546401598848</v>
+        <v>0.8906546401598847</v>
       </c>
       <c r="E193">
         <v>0.8961218480192782</v>
@@ -3655,10 +3655,10 @@
         <v>0.5458843669831802</v>
       </c>
       <c r="C194">
-        <v>0.6525707325225768</v>
+        <v>0.6525707325225767</v>
       </c>
       <c r="D194">
-        <v>0.7170167028922154</v>
+        <v>0.7170167028922152</v>
       </c>
       <c r="E194">
         <v>0.731723591965568</v>
@@ -3689,10 +3689,10 @@
         <v>0.6852675958580419</v>
       </c>
       <c r="C196">
-        <v>0.8395113704202583</v>
+        <v>0.8395113704202581</v>
       </c>
       <c r="D196">
-        <v>0.9005518966701257</v>
+        <v>0.9005518966701256</v>
       </c>
       <c r="E196">
         <v>0.8996829316307668</v>
@@ -3706,13 +3706,13 @@
         <v>0.6848142521144812</v>
       </c>
       <c r="C197">
-        <v>0.8231449891356635</v>
+        <v>0.8231449891356634</v>
       </c>
       <c r="D197">
         <v>0.89153532558045</v>
       </c>
       <c r="E197">
-        <v>0.893495401047872</v>
+        <v>0.8934954010478718</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3720,16 +3720,16 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.6186015934975827</v>
+        <v>0.6186015934975828</v>
       </c>
       <c r="C198">
-        <v>0.7390108664060188</v>
+        <v>0.7390108664060187</v>
       </c>
       <c r="D198">
         <v>0.807447546615462</v>
       </c>
       <c r="E198">
-        <v>0.8149932489805279</v>
+        <v>0.8149932489805278</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3763,7 +3763,7 @@
         <v>1.102440334060881</v>
       </c>
       <c r="E200">
-        <v>0.9891031593064089</v>
+        <v>0.989103159306409</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.082234710468226</v>
+        <v>1.082234710468225</v>
       </c>
       <c r="C204">
         <v>1.145852823424657</v>
@@ -3862,7 +3862,7 @@
         <v>0.5799074408786957</v>
       </c>
       <c r="D206">
-        <v>0.7194626052964713</v>
+        <v>0.7194626052964712</v>
       </c>
       <c r="E206">
         <v>0.7848996602683139</v>
@@ -3899,7 +3899,7 @@
         <v>0.6658544495893933</v>
       </c>
       <c r="E208">
-        <v>0.73705098515914</v>
+        <v>0.7370509851591399</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3913,7 +3913,7 @@
         <v>0.487692416581934</v>
       </c>
       <c r="D209">
-        <v>0.6095375118317792</v>
+        <v>0.6095375118317791</v>
       </c>
       <c r="E209">
         <v>0.674214471253575</v>
@@ -3933,7 +3933,7 @@
         <v>0.6658544495893934</v>
       </c>
       <c r="E210">
-        <v>0.73705098515914</v>
+        <v>0.7370509851591399</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.7236260382532348</v>
+        <v>0.7236260382532349</v>
       </c>
       <c r="C211">
-        <v>0.7809817491002754</v>
+        <v>0.7809817491002753</v>
       </c>
       <c r="D211">
         <v>0.8775462117420677</v>
       </c>
       <c r="E211">
-        <v>0.8543962609879486</v>
+        <v>0.8543962609879485</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3961,10 +3961,10 @@
         <v>0.7635214321732031</v>
       </c>
       <c r="C212">
-        <v>0.8633791919328374</v>
+        <v>0.8633791919328373</v>
       </c>
       <c r="D212">
-        <v>0.9489932378123671</v>
+        <v>0.948993237812367</v>
       </c>
       <c r="E212">
         <v>0.901103201051999</v>
@@ -3978,7 +3978,7 @@
         <v>0.4170771815770177</v>
       </c>
       <c r="C213">
-        <v>0.5302564520012146</v>
+        <v>0.5302564520012147</v>
       </c>
       <c r="D213">
         <v>0.6658544495893934</v>
@@ -4001,7 +4001,7 @@
         <v>0.7924165842702853</v>
       </c>
       <c r="E214">
-        <v>0.7879377843390065</v>
+        <v>0.7879377843390066</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.6291678778824525</v>
+        <v>0.6291678778824527</v>
       </c>
       <c r="C215">
         <v>0.68227714506021</v>
@@ -4018,7 +4018,7 @@
         <v>0.7924165842702853</v>
       </c>
       <c r="E215">
-        <v>0.7879377843390065</v>
+        <v>0.7879377843390066</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4035,7 +4035,7 @@
         <v>0.7779227844628825</v>
       </c>
       <c r="E216">
-        <v>0.774963297289826</v>
+        <v>0.7749632972898259</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4043,13 +4043,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.6649509614600616</v>
+        <v>0.6649509614600617</v>
       </c>
       <c r="C217">
-        <v>0.7064504752527491</v>
+        <v>0.706450475252749</v>
       </c>
       <c r="D217">
-        <v>0.8125303138706489</v>
+        <v>0.8125303138706488</v>
       </c>
       <c r="E217">
         <v>0.8033453379740332</v>
@@ -4063,10 +4063,10 @@
         <v>0.9605186290857936</v>
       </c>
       <c r="C218">
-        <v>0.9210687822942162</v>
+        <v>0.9210687822942161</v>
       </c>
       <c r="D218">
-        <v>0.969326676255463</v>
+        <v>0.9693266762554631</v>
       </c>
       <c r="E218">
         <v>0.8999191155814283</v>
@@ -4080,13 +4080,13 @@
         <v>0.7150230500441797</v>
       </c>
       <c r="C219">
-        <v>0.8165578474671495</v>
+        <v>0.8165578474671494</v>
       </c>
       <c r="D219">
         <v>0.9243273475813081</v>
       </c>
       <c r="E219">
-        <v>0.8870606071298317</v>
+        <v>0.8870606071298316</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,16 +4094,16 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.7846155246193079</v>
+        <v>0.7846155246193082</v>
       </c>
       <c r="C220">
-        <v>0.897500474544727</v>
+        <v>0.8975004745447269</v>
       </c>
       <c r="D220">
-        <v>0.9767208918712765</v>
+        <v>0.9767208918712764</v>
       </c>
       <c r="E220">
-        <v>0.9193219455403934</v>
+        <v>0.9193219455403935</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4120,7 +4120,7 @@
         <v>1.099324737498445</v>
       </c>
       <c r="E221">
-        <v>0.9830873562543148</v>
+        <v>0.9830873562543145</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4131,7 +4131,7 @@
         <v>0.7150230500441797</v>
       </c>
       <c r="C222">
-        <v>0.8165578474671495</v>
+        <v>0.8165578474671494</v>
       </c>
       <c r="D222">
         <v>0.9243273475813081</v>
@@ -4182,7 +4182,7 @@
         <v>0.6088975181680193</v>
       </c>
       <c r="C225">
-        <v>0.6322651414423774</v>
+        <v>0.6322651414423773</v>
       </c>
       <c r="D225">
         <v>0.7426698716404492</v>
@@ -4199,13 +4199,13 @@
         <v>0.8755222495448026</v>
       </c>
       <c r="C226">
-        <v>0.8188423086208808</v>
+        <v>0.8188423086208805</v>
       </c>
       <c r="D226">
-        <v>0.8911908703047076</v>
+        <v>0.8911908703047073</v>
       </c>
       <c r="E226">
-        <v>0.8564217974469919</v>
+        <v>0.8564217974469921</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4222,7 +4222,7 @@
         <v>0.629650006161958</v>
       </c>
       <c r="E227">
-        <v>0.640633062943865</v>
+        <v>0.6406330629438651</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4247,13 +4247,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.7846155246193079</v>
+        <v>0.7846155246193082</v>
       </c>
       <c r="C229">
-        <v>0.897500474544727</v>
+        <v>0.8975004745447269</v>
       </c>
       <c r="D229">
-        <v>0.9767208918712765</v>
+        <v>0.9767208918712764</v>
       </c>
       <c r="E229">
         <v>0.9193219455403934</v>
@@ -4264,10 +4264,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.6996406871029536</v>
+        <v>0.6996406871029538</v>
       </c>
       <c r="C230">
-        <v>0.8179875797866452</v>
+        <v>0.817987579786645</v>
       </c>
       <c r="D230">
         <v>0.9322961807049225</v>
@@ -4290,7 +4290,7 @@
         <v>1.108637044353513</v>
       </c>
       <c r="E231">
-        <v>0.9856888661839686</v>
+        <v>0.9856888661839684</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4366,13 +4366,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1.550435511788715</v>
+        <v>1.550435511788716</v>
       </c>
       <c r="C236">
         <v>1.416821366937398</v>
       </c>
       <c r="D236">
-        <v>1.264710049208007</v>
+        <v>1.264710049208006</v>
       </c>
       <c r="E236">
         <v>1.072480654139632</v>
@@ -4386,7 +4386,7 @@
         <v>0.9187323771095661</v>
       </c>
       <c r="C237">
-        <v>0.8357786419046617</v>
+        <v>0.8357786419046616</v>
       </c>
       <c r="D237">
         <v>0.8899621454293341</v>
@@ -4406,7 +4406,7 @@
         <v>0.6548518299328921</v>
       </c>
       <c r="D238">
-        <v>0.7461884437519853</v>
+        <v>0.7461884437519852</v>
       </c>
       <c r="E238">
         <v>0.7502131428570911</v>
@@ -4426,7 +4426,7 @@
         <v>1.072372071825476</v>
       </c>
       <c r="E239">
-        <v>0.9703822057869476</v>
+        <v>0.9703822057869474</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4440,7 +4440,7 @@
         <v>1.011340355267341</v>
       </c>
       <c r="D240">
-        <v>0.9990904183690218</v>
+        <v>0.9990904183690217</v>
       </c>
       <c r="E240">
         <v>0.9291520387870209</v>
@@ -4460,7 +4460,7 @@
         <v>1.053655130517794</v>
       </c>
       <c r="E241">
-        <v>0.954678872541752</v>
+        <v>0.9546788725417522</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4468,7 +4468,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1.06406963268674</v>
+        <v>1.064069632686741</v>
       </c>
       <c r="C242">
         <v>1.086624100029551</v>
@@ -4505,13 +4505,13 @@
         <v>1.06406963268674</v>
       </c>
       <c r="C244">
-        <v>1.086624100029551</v>
+        <v>1.08662410002955</v>
       </c>
       <c r="D244">
         <v>1.099324737498445</v>
       </c>
       <c r="E244">
-        <v>0.9830873562543148</v>
+        <v>0.9830873562543145</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4570,7 +4570,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>1.413943023766275</v>
+        <v>1.413943023766276</v>
       </c>
       <c r="C248">
         <v>1.280390673978966</v>
@@ -4593,7 +4593,7 @@
         <v>1.043319935417954</v>
       </c>
       <c r="D249">
-        <v>1.059177092602272</v>
+        <v>1.059177092602271</v>
       </c>
       <c r="E249">
         <v>0.9847457948777341</v>
@@ -4610,7 +4610,7 @@
         <v>1.242949740020908</v>
       </c>
       <c r="D250">
-        <v>1.17508833829751</v>
+        <v>1.175088338297509</v>
       </c>
       <c r="E250">
         <v>1.020579085559539</v>
@@ -4627,7 +4627,7 @@
         <v>1.372688910572301</v>
       </c>
       <c r="D251">
-        <v>1.24181250489707</v>
+        <v>1.241812504897069</v>
       </c>
       <c r="E251">
         <v>1.056801266762271</v>
@@ -4641,7 +4641,7 @@
         <v>1.164512299033488</v>
       </c>
       <c r="C252">
-        <v>1.180432560603464</v>
+        <v>1.180432560603463</v>
       </c>
       <c r="D252">
         <v>1.150244307411775</v>
@@ -4658,7 +4658,7 @@
         <v>1.753373374313754</v>
       </c>
       <c r="C253">
-        <v>1.565807436634458</v>
+        <v>1.565807436634457</v>
       </c>
       <c r="D253">
         <v>1.348874346578686</v>
@@ -4692,7 +4692,7 @@
         <v>1.753373374313754</v>
       </c>
       <c r="C255">
-        <v>1.565807436634458</v>
+        <v>1.565807436634457</v>
       </c>
       <c r="D255">
         <v>1.348874346578686</v>
@@ -4712,7 +4712,7 @@
         <v>1.496113652713302</v>
       </c>
       <c r="D256">
-        <v>1.307812984936037</v>
+        <v>1.307812984936036</v>
       </c>
       <c r="E256">
         <v>1.095036698277682</v>
@@ -4743,7 +4743,7 @@
         <v>1.285484607917151</v>
       </c>
       <c r="C258">
-        <v>1.246648493189889</v>
+        <v>1.246648493189888</v>
       </c>
       <c r="D258">
         <v>1.185538402761978</v>
@@ -4760,7 +4760,7 @@
         <v>1.285484607917151</v>
       </c>
       <c r="C259">
-        <v>1.246648493189889</v>
+        <v>1.246648493189888</v>
       </c>
       <c r="D259">
         <v>1.185538402761978</v>
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.6505426007250174</v>
+        <v>0.6505426007250172</v>
       </c>
       <c r="C260">
-        <v>0.6890499356744431</v>
+        <v>0.6890499356744429</v>
       </c>
       <c r="D260">
         <v>0.831739089542977</v>
       </c>
       <c r="E260">
-        <v>0.8214666655697656</v>
+        <v>0.8214666655697654</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4794,13 +4794,13 @@
         <v>0.5983999254040802</v>
       </c>
       <c r="C261">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D261">
-        <v>0.8437737200110229</v>
+        <v>0.843773720011023</v>
       </c>
       <c r="E261">
-        <v>0.8412800172153341</v>
+        <v>0.8412800172153339</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4811,10 +4811,10 @@
         <v>0.6329566051038699</v>
       </c>
       <c r="C262">
-        <v>0.6691401769086673</v>
+        <v>0.6691401769086671</v>
       </c>
       <c r="D262">
-        <v>0.8138474474642656</v>
+        <v>0.8138474474642654</v>
       </c>
       <c r="E262">
         <v>0.8084567656091792</v>
@@ -4828,13 +4828,13 @@
         <v>0.8720880462584772</v>
       </c>
       <c r="C263">
-        <v>0.8685484080448904</v>
+        <v>0.8685484080448902</v>
       </c>
       <c r="D263">
-        <v>0.9480624371147784</v>
+        <v>0.9480624371147783</v>
       </c>
       <c r="E263">
-        <v>0.91319667200236</v>
+        <v>0.9131966720023599</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>0.8054890900674745</v>
       </c>
       <c r="C264">
-        <v>0.8019242238009767</v>
+        <v>0.8019242238009765</v>
       </c>
       <c r="D264">
         <v>0.9114898467842549</v>
       </c>
       <c r="E264">
-        <v>0.8800346389114025</v>
+        <v>0.8800346389114024</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4859,16 +4859,16 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.8054890900674745</v>
+        <v>0.8054890900674744</v>
       </c>
       <c r="C265">
-        <v>0.8019242238009768</v>
+        <v>0.8019242238009767</v>
       </c>
       <c r="D265">
         <v>0.9114898467842549</v>
       </c>
       <c r="E265">
-        <v>0.8800346389114025</v>
+        <v>0.8800346389114024</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4893,10 +4893,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.8054890900674745</v>
+        <v>0.8054890900674744</v>
       </c>
       <c r="C267">
-        <v>0.8019242238009767</v>
+        <v>0.8019242238009765</v>
       </c>
       <c r="D267">
         <v>0.9114898467842549</v>
@@ -4913,7 +4913,7 @@
         <v>0.5983999254040802</v>
       </c>
       <c r="C268">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D268">
         <v>0.843773720011023</v>
@@ -4930,7 +4930,7 @@
         <v>0.59839992540408</v>
       </c>
       <c r="C269">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D269">
         <v>0.843773720011023</v>
@@ -4947,13 +4947,13 @@
         <v>0.9856464774596401</v>
       </c>
       <c r="C270">
-        <v>0.9809113777423573</v>
+        <v>0.9809113777423571</v>
       </c>
       <c r="D270">
         <v>0.9840051861816995</v>
       </c>
       <c r="E270">
-        <v>0.9089021985231244</v>
+        <v>0.9089021985231241</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.8389932070654016</v>
+        <v>0.8389932070654015</v>
       </c>
       <c r="C271">
-        <v>0.8051957324791613</v>
+        <v>0.8051957324791611</v>
       </c>
       <c r="D271">
-        <v>0.846568849614397</v>
+        <v>0.8465688496143969</v>
       </c>
       <c r="E271">
         <v>0.8156759446420567</v>
@@ -4978,10 +4978,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.8389932070654016</v>
+        <v>0.8389932070654015</v>
       </c>
       <c r="C272">
-        <v>0.8051957324791612</v>
+        <v>0.8051957324791611</v>
       </c>
       <c r="D272">
         <v>0.8465688496143969</v>
@@ -5004,7 +5004,7 @@
         <v>1.023693304221491</v>
       </c>
       <c r="E273">
-        <v>0.9387928138103676</v>
+        <v>0.9387928138103675</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5029,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.568865220326168</v>
+        <v>0.5688652203261683</v>
       </c>
       <c r="C275">
         <v>0.5441943217717554</v>
@@ -5049,13 +5049,13 @@
         <v>0.6606788493155226</v>
       </c>
       <c r="C276">
-        <v>0.6138845112893431</v>
+        <v>0.6138845112893432</v>
       </c>
       <c r="D276">
         <v>0.7053997388633433</v>
       </c>
       <c r="E276">
-        <v>0.7337727979645808</v>
+        <v>0.7337727979645809</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5066,10 +5066,10 @@
         <v>1.044413666161583</v>
       </c>
       <c r="C277">
-        <v>0.9002872347457895</v>
+        <v>0.9002872347457899</v>
       </c>
       <c r="D277">
-        <v>0.9561766025410922</v>
+        <v>0.956176602541092</v>
       </c>
       <c r="E277">
         <v>0.9265473223093647</v>
@@ -5114,7 +5114,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1.148736839015136</v>
+        <v>1.148736839015135</v>
       </c>
       <c r="C280">
         <v>1.02671719474071</v>
@@ -5137,7 +5137,7 @@
         <v>0.6729048963260866</v>
       </c>
       <c r="D281">
-        <v>0.7693419215606271</v>
+        <v>0.7693419215606269</v>
       </c>
       <c r="E281">
         <v>0.7931268952835134</v>
@@ -5148,10 +5148,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.6579350110604641</v>
+        <v>0.6579350110604639</v>
       </c>
       <c r="C282">
-        <v>0.6070461503786377</v>
+        <v>0.607046150378638</v>
       </c>
       <c r="D282">
         <v>0.7048653098210402</v>
@@ -5168,7 +5168,7 @@
         <v>0.657935011060464</v>
       </c>
       <c r="C283">
-        <v>0.6070461503786378</v>
+        <v>0.607046150378638</v>
       </c>
       <c r="D283">
         <v>0.7048653098210403</v>
@@ -5202,13 +5202,13 @@
         <v>0.6606788493155227</v>
       </c>
       <c r="C285">
-        <v>0.6138845112893431</v>
+        <v>0.6138845112893432</v>
       </c>
       <c r="D285">
         <v>0.7053997388633432</v>
       </c>
       <c r="E285">
-        <v>0.7337727979645809</v>
+        <v>0.7337727979645811</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,7 +5216,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1.148736839015136</v>
+        <v>1.148736839015135</v>
       </c>
       <c r="C286">
         <v>1.02671719474071</v>
@@ -5236,7 +5236,7 @@
         <v>1.310917160860273</v>
       </c>
       <c r="C287">
-        <v>1.221916734664677</v>
+        <v>1.221916734664676</v>
       </c>
       <c r="D287">
         <v>1.158688805391951</v>
@@ -5253,7 +5253,7 @@
         <v>1.181643027899042</v>
       </c>
       <c r="C288">
-        <v>1.145910532120441</v>
+        <v>1.14591053212044</v>
       </c>
       <c r="D288">
         <v>1.119313286524986</v>
@@ -5287,7 +5287,7 @@
         <v>1.433942444603862</v>
       </c>
       <c r="C290">
-        <v>1.28561717137149</v>
+        <v>1.285617171371489</v>
       </c>
       <c r="D290">
         <v>1.196165346684611</v>
@@ -5304,10 +5304,10 @@
         <v>1.072426059488351</v>
       </c>
       <c r="C291">
-        <v>1.071063569507878</v>
+        <v>1.071063569507877</v>
       </c>
       <c r="D291">
-        <v>1.078687910916926</v>
+        <v>1.078687910916925</v>
       </c>
       <c r="E291">
         <v>0.987342188466711</v>
@@ -5321,7 +5321,7 @@
         <v>1.208331051008408</v>
       </c>
       <c r="C292">
-        <v>1.18086185138027</v>
+        <v>1.180861851380269</v>
       </c>
       <c r="D292">
         <v>1.132486156337655</v>
@@ -5355,7 +5355,7 @@
         <v>1.330961666468193</v>
       </c>
       <c r="C294">
-        <v>1.250493740784491</v>
+        <v>1.25049374078449</v>
       </c>
       <c r="D294">
         <v>1.171893981020176</v>
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.5783089424620371</v>
+        <v>0.578308942462037</v>
       </c>
       <c r="C295">
-        <v>0.7052871730298383</v>
+        <v>0.7052871730298385</v>
       </c>
       <c r="D295">
-        <v>0.8188817457944199</v>
+        <v>0.8188817457944197</v>
       </c>
       <c r="E295">
-        <v>0.8088901942024795</v>
+        <v>0.8088901942024797</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,7 +5389,7 @@
         <v>0.6072232592669903</v>
       </c>
       <c r="C296">
-        <v>0.7390951723922916</v>
+        <v>0.7390951723922915</v>
       </c>
       <c r="D296">
         <v>0.8541454827113144</v>
@@ -5409,7 +5409,7 @@
         <v>1.034578973733051</v>
       </c>
       <c r="D297">
-        <v>1.048056470442559</v>
+        <v>1.048056470442558</v>
       </c>
       <c r="E297">
         <v>0.9546941116565439</v>
@@ -5423,10 +5423,10 @@
         <v>0.5801274754444729</v>
       </c>
       <c r="C298">
-        <v>0.709349673733094</v>
+        <v>0.7093496737330939</v>
       </c>
       <c r="D298">
-        <v>0.8224813518947964</v>
+        <v>0.8224813518947961</v>
       </c>
       <c r="E298">
         <v>0.8148501094155874</v>
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.5783089424620371</v>
+        <v>0.578308942462037</v>
       </c>
       <c r="C300">
-        <v>0.7052871730298383</v>
+        <v>0.7052871730298385</v>
       </c>
       <c r="D300">
         <v>0.8188817457944199</v>
       </c>
       <c r="E300">
-        <v>0.8088901942024795</v>
+        <v>0.8088901942024797</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5471,16 +5471,16 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.9431625075479343</v>
+        <v>0.9431625075479344</v>
       </c>
       <c r="C301">
-        <v>0.9862764540251752</v>
+        <v>0.9862764540251749</v>
       </c>
       <c r="D301">
-        <v>1.018376312995311</v>
+        <v>1.01837631299531</v>
       </c>
       <c r="E301">
-        <v>0.9363943071691251</v>
+        <v>0.9363943071691249</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5528,10 +5528,10 @@
         <v>0.894883495205071</v>
       </c>
       <c r="D304">
-        <v>0.9421179659042389</v>
+        <v>0.9421179659042388</v>
       </c>
       <c r="E304">
-        <v>0.8813116063758423</v>
+        <v>0.881311606375842</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5539,16 +5539,16 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.8552603146131815</v>
+        <v>0.8552603146131814</v>
       </c>
       <c r="C305">
-        <v>0.8948834952050712</v>
+        <v>0.894883495205071</v>
       </c>
       <c r="D305">
-        <v>0.942117965904239</v>
+        <v>0.9421179659042389</v>
       </c>
       <c r="E305">
-        <v>0.8813116063758423</v>
+        <v>0.881311606375842</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5559,7 +5559,7 @@
         <v>0.7650247980233935</v>
       </c>
       <c r="C306">
-        <v>0.8072931433837939</v>
+        <v>0.8072931433837938</v>
       </c>
       <c r="D306">
         <v>0.8741190996130923</v>
@@ -5579,10 +5579,10 @@
         <v>0.894883495205071</v>
       </c>
       <c r="D307">
-        <v>0.9421179659042389</v>
+        <v>0.9421179659042388</v>
       </c>
       <c r="E307">
-        <v>0.8813116063758424</v>
+        <v>0.8813116063758423</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5599,7 +5599,7 @@
         <v>1.035324120295399</v>
       </c>
       <c r="E308">
-        <v>0.9523635791996569</v>
+        <v>0.9523635791996568</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5607,10 +5607,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.7650247980233934</v>
+        <v>0.7650247980233933</v>
       </c>
       <c r="C309">
-        <v>0.8072931433837939</v>
+        <v>0.8072931433837938</v>
       </c>
       <c r="D309">
         <v>0.8741190996130924</v>
@@ -5641,7 +5641,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787837</v>
       </c>
       <c r="C311">
         <v>0.7460523730737799</v>
@@ -5650,7 +5650,7 @@
         <v>0.8139895581030923</v>
       </c>
       <c r="E311">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320061</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.5176588809685772</v>
+        <v>0.5176588809685773</v>
       </c>
       <c r="C312">
-        <v>0.5196205981867934</v>
+        <v>0.5196205981867933</v>
       </c>
       <c r="D312">
         <v>0.5709218472635699</v>
       </c>
       <c r="E312">
-        <v>0.5661539982174756</v>
+        <v>0.5661539982174758</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,7 +5675,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787838</v>
       </c>
       <c r="C313">
         <v>0.7460523730737797</v>
@@ -5684,7 +5684,7 @@
         <v>0.8139895581030923</v>
       </c>
       <c r="E313">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320062</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787837</v>
       </c>
       <c r="C314">
-        <v>0.7460523730737799</v>
+        <v>0.7460523730737798</v>
       </c>
       <c r="D314">
         <v>0.8139895581030923</v>
       </c>
       <c r="E314">
-        <v>0.807596570032006</v>
+        <v>0.8075965700320061</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5715,7 +5715,7 @@
         <v>1.260232852660728</v>
       </c>
       <c r="D315">
-        <v>1.151432879960955</v>
+        <v>1.151432879960954</v>
       </c>
       <c r="E315">
         <v>0.9997494260151237</v>
@@ -5732,7 +5732,7 @@
         <v>1.106324541150203</v>
       </c>
       <c r="D316">
-        <v>1.075110286511851</v>
+        <v>1.07511028651185</v>
       </c>
       <c r="E316">
         <v>0.9696708017141433</v>
@@ -5780,10 +5780,10 @@
         <v>0.796082550570043</v>
       </c>
       <c r="C319">
-        <v>0.9230644918857785</v>
+        <v>0.9230644918857782</v>
       </c>
       <c r="D319">
-        <v>0.9669679888590382</v>
+        <v>0.9669679888590381</v>
       </c>
       <c r="E319">
         <v>0.8995726884515254</v>
@@ -5794,10 +5794,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.8190399910430644</v>
+        <v>0.8190399910430642</v>
       </c>
       <c r="C320">
-        <v>0.9370512947011507</v>
+        <v>0.9370512947011506</v>
       </c>
       <c r="D320">
         <v>0.9872733283489684</v>
@@ -5814,13 +5814,13 @@
         <v>0.879488101608585</v>
       </c>
       <c r="C321">
-        <v>0.9874098323687295</v>
+        <v>0.9874098323687294</v>
       </c>
       <c r="D321">
         <v>1.017376898659015</v>
       </c>
       <c r="E321">
-        <v>0.9386303635959196</v>
+        <v>0.9386303635959194</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5845,10 +5845,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.8618152399533432</v>
+        <v>0.8618152399533433</v>
       </c>
       <c r="C323">
-        <v>0.9470155722805279</v>
+        <v>0.9470155722805277</v>
       </c>
       <c r="D323">
         <v>0.9801285008580111</v>
@@ -5865,7 +5865,7 @@
         <v>0.8618152399533433</v>
       </c>
       <c r="C324">
-        <v>0.9470155722805278</v>
+        <v>0.9470155722805277</v>
       </c>
       <c r="D324">
         <v>0.980128500858011</v>
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.959439972293795</v>
+        <v>0.9594399722937952</v>
       </c>
       <c r="C326">
-        <v>1.041070488613581</v>
+        <v>1.04107048861358</v>
       </c>
       <c r="D326">
         <v>1.038708349054644</v>
       </c>
       <c r="E326">
-        <v>0.9473880906614696</v>
+        <v>0.9473880906614691</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5936,7 +5936,7 @@
         <v>1.536230614879984</v>
       </c>
       <c r="D328">
-        <v>1.274135253290153</v>
+        <v>1.274135253290152</v>
       </c>
       <c r="E328">
         <v>1.065701714880446</v>
@@ -5990,7 +5990,7 @@
         <v>1.090495018593114</v>
       </c>
       <c r="E331">
-        <v>0.9604745755478152</v>
+        <v>0.9604745755478151</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>1.656745958331669</v>
+        <v>1.656745958331668</v>
       </c>
       <c r="C332">
         <v>1.514778030852817</v>
@@ -6018,7 +6018,7 @@
         <v>1.277782271367089</v>
       </c>
       <c r="C333">
-        <v>1.274468769049363</v>
+        <v>1.274468769049362</v>
       </c>
       <c r="D333">
         <v>1.19920414578332</v>
@@ -6072,7 +6072,7 @@
         <v>1.520522483744868</v>
       </c>
       <c r="D336">
-        <v>1.292665502219931</v>
+        <v>1.29266550221993</v>
       </c>
       <c r="E336">
         <v>1.083227121276858</v>
@@ -6086,10 +6086,10 @@
         <v>0.5627102991666413</v>
       </c>
       <c r="C337">
-        <v>0.51848374083015</v>
+        <v>0.5184837408301501</v>
       </c>
       <c r="D337">
-        <v>0.6071150865319381</v>
+        <v>0.607115086531938</v>
       </c>
       <c r="E337">
         <v>0.6218771758552317</v>
@@ -6100,16 +6100,16 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.5063124254573825</v>
+        <v>0.5063124254573826</v>
       </c>
       <c r="C338">
-        <v>0.4768628224305436</v>
+        <v>0.4768628224305435</v>
       </c>
       <c r="D338">
-        <v>0.5784549748995231</v>
+        <v>0.578454974899523</v>
       </c>
       <c r="E338">
-        <v>0.5994075850548775</v>
+        <v>0.5994075850548773</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6154,7 +6154,7 @@
         <v>0.6075231086378099</v>
       </c>
       <c r="C341">
-        <v>0.55560212406538</v>
+        <v>0.5556021240653799</v>
       </c>
       <c r="D341">
         <v>0.6441340677093823</v>
@@ -6177,7 +6177,7 @@
         <v>0.7513071271809929</v>
       </c>
       <c r="E342">
-        <v>0.7545475802459733</v>
+        <v>0.7545475802459731</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6194,7 +6194,7 @@
         <v>0.7513071271809929</v>
       </c>
       <c r="E343">
-        <v>0.7545475802459733</v>
+        <v>0.7545475802459732</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.6672506347868215</v>
+        <v>0.6672506347868216</v>
       </c>
       <c r="C344">
         <v>0.5881644186920514</v>
@@ -6236,7 +6236,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.52332805225907</v>
+        <v>0.5233280522590701</v>
       </c>
       <c r="C346">
         <v>0.481874281807309</v>
@@ -6245,7 +6245,7 @@
         <v>0.5829164886081335</v>
       </c>
       <c r="E346">
-        <v>0.6060819854835171</v>
+        <v>0.606081985483517</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6262,7 +6262,7 @@
         <v>0.5829164886081335</v>
       </c>
       <c r="E347">
-        <v>0.6060819854835171</v>
+        <v>0.606081985483517</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6324,7 +6324,7 @@
         <v>0.487772600085791</v>
       </c>
       <c r="C351">
-        <v>0.4590410604569824</v>
+        <v>0.4590410604569822</v>
       </c>
       <c r="D351">
         <v>0.5499618432585629</v>
@@ -6341,10 +6341,10 @@
         <v>0.487772600085791</v>
       </c>
       <c r="C352">
-        <v>0.4590410604569824</v>
+        <v>0.4590410604569822</v>
       </c>
       <c r="D352">
-        <v>0.5499618432585629</v>
+        <v>0.5499618432585628</v>
       </c>
       <c r="E352">
         <v>0.5582893384116365</v>
@@ -6378,7 +6378,7 @@
         <v>0.7599870373077091</v>
       </c>
       <c r="D354">
-        <v>0.7777702841899303</v>
+        <v>0.7777702841899302</v>
       </c>
       <c r="E354">
         <v>0.7675624081651803</v>
@@ -6412,7 +6412,7 @@
         <v>0.7115071397700126</v>
       </c>
       <c r="D356">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="E356">
         <v>0.7152939203364015</v>
@@ -6426,10 +6426,10 @@
         <v>0.8828343181500914</v>
       </c>
       <c r="C357">
-        <v>0.7115071397700125</v>
+        <v>0.7115071397700126</v>
       </c>
       <c r="D357">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="E357">
         <v>0.7152939203364015</v>
@@ -6446,7 +6446,7 @@
         <v>0.7115071397700126</v>
       </c>
       <c r="D358">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="E358">
         <v>0.7152939203364015</v>
@@ -6477,10 +6477,10 @@
         <v>0.5383325340619122</v>
       </c>
       <c r="C360">
-        <v>0.5011490934820959</v>
+        <v>0.5011490934820958</v>
       </c>
       <c r="D360">
-        <v>0.5780906647214678</v>
+        <v>0.5780906647214676</v>
       </c>
       <c r="E360">
         <v>0.5842483389659421</v>
@@ -6497,7 +6497,7 @@
         <v>1.145917270287123</v>
       </c>
       <c r="D361">
-        <v>1.168702126634274</v>
+        <v>1.168702126634273</v>
       </c>
       <c r="E361">
         <v>1.052504433331544</v>
@@ -6525,7 +6525,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.9433396477307688</v>
+        <v>0.9433396477307687</v>
       </c>
       <c r="C363">
         <v>1.029713150671796</v>
@@ -6559,7 +6559,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1.291757141973288</v>
+        <v>1.291757141973289</v>
       </c>
       <c r="C365">
         <v>1.218827856399286</v>
@@ -6585,7 +6585,7 @@
         <v>1.076220748053521</v>
       </c>
       <c r="E366">
-        <v>0.9926030163513181</v>
+        <v>0.9926030163513179</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6616,7 +6616,7 @@
         <v>1.08322255339933</v>
       </c>
       <c r="D368">
-        <v>1.08525071914556</v>
+        <v>1.085250719145559</v>
       </c>
       <c r="E368">
         <v>0.998040825400893</v>
@@ -6636,7 +6636,7 @@
         <v>1.076220748053521</v>
       </c>
       <c r="E369">
-        <v>0.9926030163513181</v>
+        <v>0.9926030163513179</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6647,13 +6647,13 @@
         <v>0.9479935664521266</v>
       </c>
       <c r="C370">
-        <v>0.9284498784168803</v>
+        <v>0.92844987841688</v>
       </c>
       <c r="D370">
-        <v>0.9999614524202272</v>
+        <v>0.999961452420227</v>
       </c>
       <c r="E370">
-        <v>0.9519330064871599</v>
+        <v>0.9519330064871601</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>0.9479935664521267</v>
       </c>
       <c r="C371">
-        <v>0.9284498784168803</v>
+        <v>0.9284498784168799</v>
       </c>
       <c r="D371">
-        <v>0.9999614524202273</v>
+        <v>0.9999614524202269</v>
       </c>
       <c r="E371">
-        <v>0.9519330064871598</v>
+        <v>0.9519330064871601</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>0.9479935664521266</v>
       </c>
       <c r="C372">
-        <v>0.9284498784168805</v>
+        <v>0.92844987841688</v>
       </c>
       <c r="D372">
-        <v>0.9999614524202273</v>
+        <v>0.999961452420227</v>
       </c>
       <c r="E372">
-        <v>0.9519330064871598</v>
+        <v>0.9519330064871599</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,7 +6695,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.9693587685265493</v>
+        <v>0.9693587685265496</v>
       </c>
       <c r="C373">
         <v>0.9276851869087933</v>
@@ -6712,10 +6712,10 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.780789957571752</v>
+        <v>0.7807899575717521</v>
       </c>
       <c r="C374">
-        <v>0.7262651705215679</v>
+        <v>0.7262651705215678</v>
       </c>
       <c r="D374">
         <v>0.8373910078927503</v>
@@ -6732,7 +6732,7 @@
         <v>1.061218466858127</v>
       </c>
       <c r="C375">
-        <v>0.9843771754430222</v>
+        <v>0.9843771754430223</v>
       </c>
       <c r="D375">
         <v>1.017756531041182</v>
@@ -6746,7 +6746,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>0.8951711566143828</v>
+        <v>0.895171156614383</v>
       </c>
       <c r="C376">
         <v>0.7970839030242299</v>
@@ -6755,7 +6755,7 @@
         <v>0.8915184328940543</v>
       </c>
       <c r="E376">
-        <v>0.8664099246061394</v>
+        <v>0.8664099246061395</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.895171156614383</v>
+        <v>0.8951711566143831</v>
       </c>
       <c r="C377">
         <v>0.7970839030242299</v>
       </c>
       <c r="D377">
-        <v>0.8915184328940543</v>
+        <v>0.8915184328940542</v>
       </c>
       <c r="E377">
-        <v>0.8664099246061394</v>
+        <v>0.8664099246061396</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6786,10 +6786,10 @@
         <v>1.085621938101718</v>
       </c>
       <c r="D378">
-        <v>1.076186250753838</v>
+        <v>1.076186250753837</v>
       </c>
       <c r="E378">
-        <v>0.9767161433384032</v>
+        <v>0.976716143338403</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6803,10 +6803,10 @@
         <v>1.085621938101718</v>
       </c>
       <c r="D379">
-        <v>1.076186250753838</v>
+        <v>1.076186250753837</v>
       </c>
       <c r="E379">
-        <v>0.9767161433384031</v>
+        <v>0.976716143338403</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>1.042356206789945</v>
       </c>
       <c r="E382">
-        <v>0.9526995151883099</v>
+        <v>0.9526995151883096</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6882,10 +6882,10 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.9818159498053366</v>
+        <v>0.9818159498053367</v>
       </c>
       <c r="C384">
-        <v>0.9878848246604195</v>
+        <v>0.9878848246604192</v>
       </c>
       <c r="D384">
         <v>1.048555961627092</v>
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.8197382155722838</v>
+        <v>0.819738215572284</v>
       </c>
       <c r="C386">
-        <v>0.8541326053094567</v>
+        <v>0.8541326053094563</v>
       </c>
       <c r="D386">
         <v>0.969941563643362</v>
       </c>
       <c r="E386">
-        <v>0.9189090688343466</v>
+        <v>0.9189090688343468</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,10 +6933,10 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.8197382155722838</v>
+        <v>0.819738215572284</v>
       </c>
       <c r="C387">
-        <v>0.8541326053094567</v>
+        <v>0.8541326053094563</v>
       </c>
       <c r="D387">
         <v>0.9699415636433618</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.7455801094481828</v>
+        <v>0.7455801094481826</v>
       </c>
       <c r="C388">
         <v>0.5810186127210319</v>
@@ -6967,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.7331189130071665</v>
+        <v>0.7331189130071664</v>
       </c>
       <c r="C389">
         <v>0.5661284674387121</v>
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.7331189130071666</v>
+        <v>0.7331189130071664</v>
       </c>
       <c r="C390">
         <v>0.5661284674387121</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.7455801094481828</v>
+        <v>0.7455801094481826</v>
       </c>
       <c r="C391">
         <v>0.5810186127210319</v>
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.7331189130071666</v>
+        <v>0.7331189130071665</v>
       </c>
       <c r="C392">
         <v>0.5661284674387121</v>
@@ -7058,7 +7058,7 @@
         <v>0.4803700618027147</v>
       </c>
       <c r="D394">
-        <v>0.4756264203810723</v>
+        <v>0.4756264203810722</v>
       </c>
       <c r="E394">
         <v>0.5057711747758179</v>
@@ -7072,7 +7072,7 @@
         <v>0.6754916166545076</v>
       </c>
       <c r="C395">
-        <v>0.5030591473321157</v>
+        <v>0.5030591473321158</v>
       </c>
       <c r="D395">
         <v>0.4919929867745357</v>
@@ -7089,7 +7089,7 @@
         <v>0.6754916166545074</v>
       </c>
       <c r="C396">
-        <v>0.5030591473321157</v>
+        <v>0.5030591473321159</v>
       </c>
       <c r="D396">
         <v>0.4919929867745357</v>
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.7479061375703284</v>
+        <v>0.7479061375703283</v>
       </c>
       <c r="C397">
-        <v>0.5436115780862573</v>
+        <v>0.5436115780862574</v>
       </c>
       <c r="D397">
         <v>0.5391571941609945</v>
@@ -7120,10 +7120,10 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.7479061375703284</v>
+        <v>0.7479061375703283</v>
       </c>
       <c r="C398">
-        <v>0.5436115780862573</v>
+        <v>0.5436115780862574</v>
       </c>
       <c r="D398">
         <v>0.5391571941609945</v>
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.5608819977284252</v>
+        <v>0.5608819977284253</v>
       </c>
       <c r="C399">
         <v>0.4470396698924706</v>
       </c>
       <c r="D399">
-        <v>0.6033772338810498</v>
+        <v>0.6033772338810497</v>
       </c>
       <c r="E399">
         <v>0.7045548586625443</v>
@@ -7154,13 +7154,13 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.6007974531978652</v>
+        <v>0.6007974531978653</v>
       </c>
       <c r="C400">
-        <v>0.4606510596477434</v>
+        <v>0.4606510596477433</v>
       </c>
       <c r="D400">
-        <v>0.61999710642107</v>
+        <v>0.6199971064210699</v>
       </c>
       <c r="E400">
         <v>0.7147133954160486</v>
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>0.6079574119200515</v>
+        <v>0.6079574119200516</v>
       </c>
       <c r="C401">
         <v>0.4733431124566552</v>
       </c>
       <c r="D401">
-        <v>0.6281981303492297</v>
+        <v>0.6281981303492296</v>
       </c>
       <c r="E401">
         <v>0.7172593949499411</v>
@@ -7188,13 +7188,13 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.5852906912613126</v>
+        <v>0.5852906912613127</v>
       </c>
       <c r="C402">
-        <v>0.4265887470067568</v>
+        <v>0.4265887470067567</v>
       </c>
       <c r="D402">
-        <v>0.5694615117798972</v>
+        <v>0.569461511779897</v>
       </c>
       <c r="E402">
         <v>0.6643448195514796</v>
@@ -7205,13 +7205,13 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.600797453197865</v>
+        <v>0.6007974531978652</v>
       </c>
       <c r="C403">
-        <v>0.4606510596477433</v>
+        <v>0.4606510596477432</v>
       </c>
       <c r="D403">
-        <v>0.6199971064210699</v>
+        <v>0.6199971064210698</v>
       </c>
       <c r="E403">
         <v>0.7147133954160486</v>
@@ -7225,10 +7225,10 @@
         <v>0.5608096538138514</v>
       </c>
       <c r="C404">
-        <v>0.4083271072442137</v>
+        <v>0.4083271072442136</v>
       </c>
       <c r="D404">
-        <v>0.5537585074052709</v>
+        <v>0.5537585074052708</v>
       </c>
       <c r="E404">
         <v>0.6538397366922776</v>
@@ -7259,10 +7259,10 @@
         <v>0.5608096538138514</v>
       </c>
       <c r="C406">
-        <v>0.4083271072442137</v>
+        <v>0.4083271072442136</v>
       </c>
       <c r="D406">
-        <v>0.5537585074052709</v>
+        <v>0.5537585074052708</v>
       </c>
       <c r="E406">
         <v>0.6538397366922776</v>
@@ -7279,7 +7279,7 @@
         <v>0.3706237539976042</v>
       </c>
       <c r="D407">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="E407">
         <v>0.6103404380147844</v>
@@ -7293,10 +7293,10 @@
         <v>0.5328910472309175</v>
       </c>
       <c r="C408">
-        <v>0.3706237539976044</v>
+        <v>0.3706237539976042</v>
       </c>
       <c r="D408">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="E408">
         <v>0.6103404380147845</v>
@@ -7307,13 +7307,13 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>0.5328910472309175</v>
+        <v>0.5328910472309176</v>
       </c>
       <c r="C409">
-        <v>0.3706237539976044</v>
+        <v>0.3706237539976042</v>
       </c>
       <c r="D409">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="E409">
         <v>0.6103404380147844</v>
@@ -7324,13 +7324,13 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.9738304506668843</v>
+        <v>0.9738304506668845</v>
       </c>
       <c r="C410">
         <v>0.8823178322344941</v>
       </c>
       <c r="D410">
-        <v>0.9566397530876367</v>
+        <v>0.9566397530876366</v>
       </c>
       <c r="E410">
         <v>0.944987172366846</v>
@@ -7344,13 +7344,13 @@
         <v>0.9062087617452157</v>
       </c>
       <c r="C411">
-        <v>0.7857356799923969</v>
+        <v>0.7857356799923967</v>
       </c>
       <c r="D411">
-        <v>0.8940942038465225</v>
+        <v>0.8940942038465224</v>
       </c>
       <c r="E411">
-        <v>0.9034646821094505</v>
+        <v>0.9034646821094504</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7361,13 +7361,13 @@
         <v>0.9062087617452157</v>
       </c>
       <c r="C412">
-        <v>0.7857356799923969</v>
+        <v>0.7857356799923967</v>
       </c>
       <c r="D412">
-        <v>0.8940942038465225</v>
+        <v>0.8940942038465224</v>
       </c>
       <c r="E412">
-        <v>0.9034646821094505</v>
+        <v>0.9034646821094504</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7378,7 +7378,7 @@
         <v>0.8624814028075479</v>
       </c>
       <c r="C413">
-        <v>0.7661735774394371</v>
+        <v>0.766173577439437</v>
       </c>
       <c r="D413">
         <v>0.8735266345094658</v>
@@ -7409,10 +7409,10 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.9183934237954267</v>
+        <v>0.9183934237954268</v>
       </c>
       <c r="C415">
-        <v>0.7970364443799791</v>
+        <v>0.7970364443799788</v>
       </c>
       <c r="D415">
         <v>0.9084851720667722</v>
@@ -7426,10 +7426,10 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.9183934237954264</v>
+        <v>0.9183934237954267</v>
       </c>
       <c r="C416">
-        <v>0.7970364443799791</v>
+        <v>0.7970364443799788</v>
       </c>
       <c r="D416">
         <v>0.9084851720667722</v>
@@ -7443,13 +7443,13 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.7453442718612064</v>
+        <v>0.7453442718612063</v>
       </c>
       <c r="C417">
-        <v>0.6096078552842458</v>
+        <v>0.6096078552842455</v>
       </c>
       <c r="D417">
-        <v>0.7528018646240424</v>
+        <v>0.7528018646240423</v>
       </c>
       <c r="E417">
         <v>0.807722258262256</v>
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.7453442718612066</v>
+        <v>0.7453442718612064</v>
       </c>
       <c r="C418">
-        <v>0.6096078552842458</v>
+        <v>0.6096078552842455</v>
       </c>
       <c r="D418">
-        <v>0.7528018646240425</v>
+        <v>0.7528018646240424</v>
       </c>
       <c r="E418">
         <v>0.807722258262256</v>
@@ -7483,7 +7483,7 @@
         <v>0.7763466297865398</v>
       </c>
       <c r="D419">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="E419">
         <v>0.8199292113168113</v>
@@ -7500,7 +7500,7 @@
         <v>0.7763466297865398</v>
       </c>
       <c r="D420">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="E420">
         <v>0.8199292113168113</v>
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="C421">
         <v>0.5969961159224291</v>
       </c>
       <c r="D421">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="E421">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322063</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="C422">
         <v>0.5969961159224291</v>
       </c>
       <c r="D422">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695955</v>
       </c>
       <c r="E422">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322063</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>0.820748336026583</v>
       </c>
       <c r="E423">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>0.820748336026583</v>
       </c>
       <c r="E424">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="C425">
         <v>0.5969961159224291</v>
       </c>
       <c r="D425">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="E425">
-        <v>0.6996336535322065</v>
+        <v>0.6996336535322064</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7602,7 +7602,7 @@
         <v>0.7763466297865398</v>
       </c>
       <c r="D426">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="E426">
         <v>0.8199292113168113</v>
@@ -7619,10 +7619,10 @@
         <v>0.8239910595025938</v>
       </c>
       <c r="D427">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="E427">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7636,10 +7636,10 @@
         <v>0.8239910595025938</v>
       </c>
       <c r="D428">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="E428">
-        <v>0.8328976066877449</v>
+        <v>0.832897606687745</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7656,7 +7656,7 @@
         <v>0.820748336026583</v>
       </c>
       <c r="E429">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>0.820748336026583</v>
       </c>
       <c r="E430">
-        <v>0.8199292113168114</v>
+        <v>0.8199292113168115</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="C431">
         <v>0.5969961159224291</v>
       </c>
       <c r="D431">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="E431">
-        <v>0.6996336535322064</v>
+        <v>0.6996336535322062</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>0.820748336026583</v>
       </c>
       <c r="E432">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168114</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7721,10 +7721,10 @@
         <v>0.7763466297865398</v>
       </c>
       <c r="D433">
-        <v>0.820748336026583</v>
+        <v>0.8207483360265829</v>
       </c>
       <c r="E433">
-        <v>0.8199292113168113</v>
+        <v>0.8199292113168115</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,16 +7732,16 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>0.5987715097363329</v>
+        <v>0.5987715097363328</v>
       </c>
       <c r="C434">
-        <v>0.581688565055601</v>
+        <v>0.5816885650556011</v>
       </c>
       <c r="D434">
-        <v>0.6698208257649085</v>
+        <v>0.6698208257649084</v>
       </c>
       <c r="E434">
-        <v>0.7027552128907504</v>
+        <v>0.7027552128907503</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7755,7 +7755,7 @@
         <v>0.7763466297865397</v>
       </c>
       <c r="D435">
-        <v>0.820748336026583</v>
+        <v>0.8207483360265829</v>
       </c>
       <c r="E435">
         <v>0.8199292113168113</v>
@@ -7772,10 +7772,10 @@
         <v>0.6739186305063599</v>
       </c>
       <c r="D436">
-        <v>0.7173914074670856</v>
+        <v>0.7173914074670855</v>
       </c>
       <c r="E436">
-        <v>0.7282423431635242</v>
+        <v>0.7282423431635241</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7783,13 +7783,13 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.53941434705974</v>
+        <v>0.5394143470597401</v>
       </c>
       <c r="C437">
         <v>0.5029275737839017</v>
       </c>
       <c r="D437">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="E437">
         <v>0.6011891332104454</v>
@@ -7800,13 +7800,13 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.5394143470597401</v>
+        <v>0.5394143470597402</v>
       </c>
       <c r="C438">
         <v>0.5029275737839017</v>
       </c>
       <c r="D438">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="E438">
         <v>0.6011891332104454</v>
@@ -7817,13 +7817,13 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.53941434705974</v>
+        <v>0.5394143470597401</v>
       </c>
       <c r="C439">
         <v>0.5029275737839018</v>
       </c>
       <c r="D439">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="E439">
         <v>0.6011891332104454</v>
@@ -7868,7 +7868,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.4988462559569092</v>
+        <v>0.4988462559569093</v>
       </c>
       <c r="C442">
         <v>0.4645430725355286</v>
@@ -7891,10 +7891,10 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D443">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="E443">
-        <v>0.6011891332104455</v>
+        <v>0.6011891332104454</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7902,7 +7902,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.5394143470597401</v>
+        <v>0.5394143470597402</v>
       </c>
       <c r="C444">
         <v>0.5029275737839017</v>
@@ -7925,7 +7925,7 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D445">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="E445">
         <v>0.6011891332104454</v>
@@ -7959,7 +7959,7 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D447">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="E447">
         <v>0.6011891332104454</v>
@@ -7973,7 +7973,7 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C448">
-        <v>0.9714312182517206</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D448">
         <v>0.9673458807910774</v>
@@ -7990,13 +7990,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C449">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D449">
         <v>0.9673458807910774</v>
       </c>
       <c r="E449">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8007,13 +8007,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C450">
-        <v>0.9714312182517206</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D450">
         <v>0.9673458807910774</v>
       </c>
       <c r="E450">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8024,7 +8024,7 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C451">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517207</v>
       </c>
       <c r="D451">
         <v>0.9673458807910774</v>
@@ -8041,13 +8041,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C452">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D452">
         <v>0.9673458807910774</v>
       </c>
       <c r="E452">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8058,13 +8058,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C453">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D453">
         <v>0.9673458807910774</v>
       </c>
       <c r="E453">
-        <v>0.9021125730744818</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,16 +8072,16 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.9261519207056204</v>
+        <v>0.9261519207056202</v>
       </c>
       <c r="C454">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D454">
-        <v>0.9037555164651778</v>
+        <v>0.9037555164651777</v>
       </c>
       <c r="E454">
-        <v>0.869436750810332</v>
+        <v>0.8694367508103321</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.9261519207056204</v>
+        <v>0.9261519207056202</v>
       </c>
       <c r="C455">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D455">
         <v>0.9037555164651776</v>
@@ -8106,16 +8106,16 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C456">
-        <v>0.856785143393558</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D456">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E456">
-        <v>0.8694367508103321</v>
+        <v>0.869436750810332</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,10 +8123,10 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C457">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D457">
         <v>0.9037555164651776</v>
@@ -8140,13 +8140,13 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C458">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D458">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651777</v>
       </c>
       <c r="E458">
         <v>0.8694367508103321</v>
@@ -8157,13 +8157,13 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C459">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D459">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E459">
         <v>0.869436750810332</v>
@@ -8174,13 +8174,13 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C460">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D460">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E460">
         <v>0.869436750810332</v>
@@ -8191,13 +8191,13 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C461">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D461">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E461">
         <v>0.8694367508103321</v>
@@ -8208,16 +8208,16 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="C462">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D462">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E462">
-        <v>0.869436750810332</v>
+        <v>0.8694367508103321</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8231,10 +8231,10 @@
         <v>0.8239910595025937</v>
       </c>
       <c r="D463">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="E463">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,10 +8248,10 @@
         <v>0.8239910595025938</v>
       </c>
       <c r="D464">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="E464">
-        <v>0.8328976066877449</v>
+        <v>0.832897606687745</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8262,10 +8262,10 @@
         <v>0.5987715097363329</v>
       </c>
       <c r="C465">
-        <v>0.5816885650556011</v>
+        <v>0.5816885650556012</v>
       </c>
       <c r="D465">
-        <v>0.6698208257649085</v>
+        <v>0.6698208257649083</v>
       </c>
       <c r="E465">
         <v>0.7027552128907503</v>
@@ -8279,13 +8279,13 @@
         <v>0.6585182434426056</v>
       </c>
       <c r="C466">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D466">
-        <v>0.696796488558027</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="E466">
-        <v>0.7147743941554372</v>
+        <v>0.7147743941554373</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8299,10 +8299,10 @@
         <v>0.8239910595025938</v>
       </c>
       <c r="D467">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="E467">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8313,13 +8313,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C468">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D468">
         <v>0.9673458807910774</v>
       </c>
       <c r="E468">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8330,13 +8330,13 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C469">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D469">
-        <v>0.9673458807910775</v>
+        <v>0.9673458807910774</v>
       </c>
       <c r="E469">
-        <v>0.9021125730744819</v>
+        <v>0.902112573074482</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8347,7 +8347,7 @@
         <v>1.055542259668882</v>
       </c>
       <c r="C470">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D470">
         <v>0.9673458807910774</v>
@@ -8367,10 +8367,10 @@
         <v>0.8239910595025939</v>
       </c>
       <c r="D471">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="E471">
-        <v>0.832897606687745</v>
+        <v>0.8328976066877452</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,16 +8378,16 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.9261519207056206</v>
+        <v>0.9261519207056205</v>
       </c>
       <c r="C472">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D472">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="E472">
-        <v>0.8694367508103322</v>
+        <v>0.8694367508103321</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8398,10 +8398,10 @@
         <v>0.6585182434426055</v>
       </c>
       <c r="C473">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D473">
-        <v>0.6967964885580271</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="E473">
         <v>0.7147743941554373</v>
@@ -8415,10 +8415,10 @@
         <v>0.6585182434426057</v>
       </c>
       <c r="C474">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D474">
-        <v>0.6967964885580271</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="E474">
         <v>0.7147743941554372</v>
@@ -8438,7 +8438,7 @@
         <v>0.7173914074670856</v>
       </c>
       <c r="E475">
-        <v>0.7282423431635242</v>
+        <v>0.728242343163524</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,13 +8446,13 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.5745424779759268</v>
+        <v>0.5745424779759267</v>
       </c>
       <c r="C476">
         <v>0.5612871391359437</v>
       </c>
       <c r="D476">
-        <v>0.6843889193535668</v>
+        <v>0.6843889193535667</v>
       </c>
       <c r="E476">
         <v>0.7121649122476338</v>
@@ -8469,7 +8469,7 @@
         <v>0.5612871391359437</v>
       </c>
       <c r="D477">
-        <v>0.6843889193535669</v>
+        <v>0.6843889193535667</v>
       </c>
       <c r="E477">
         <v>0.7121649122476339</v>
@@ -8489,7 +8489,7 @@
         <v>0.6385650419804803</v>
       </c>
       <c r="E478">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8500,10 +8500,10 @@
         <v>0.8736243678605489</v>
       </c>
       <c r="C479">
-        <v>0.6952214014892448</v>
+        <v>0.6952214014892447</v>
       </c>
       <c r="D479">
-        <v>0.7271504238169328</v>
+        <v>0.7271504238169327</v>
       </c>
       <c r="E479">
         <v>0.747838405861926</v>
@@ -8514,13 +8514,13 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.8917959111902543</v>
+        <v>0.8917959111902541</v>
       </c>
       <c r="C480">
         <v>0.7373150680738888</v>
       </c>
       <c r="D480">
-        <v>0.7681606741898604</v>
+        <v>0.7681606741898602</v>
       </c>
       <c r="E480">
         <v>0.7874578470582949</v>
@@ -8540,7 +8540,7 @@
         <v>0.6385650419804803</v>
       </c>
       <c r="E481">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8554,10 +8554,10 @@
         <v>0.5971478118587551</v>
       </c>
       <c r="D482">
-        <v>0.6385650419804804</v>
+        <v>0.6385650419804803</v>
       </c>
       <c r="E482">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8574,7 +8574,7 @@
         <v>0.6385650419804803</v>
       </c>
       <c r="E483">
-        <v>0.6683756481066764</v>
+        <v>0.6683756481066763</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>0.8917959111902543</v>
+        <v>0.8917959111902541</v>
       </c>
       <c r="C485">
-        <v>0.7373150680738887</v>
+        <v>0.7373150680738888</v>
       </c>
       <c r="D485">
-        <v>0.7681606741898604</v>
+        <v>0.7681606741898602</v>
       </c>
       <c r="E485">
-        <v>0.787457847058295</v>
+        <v>0.7874578470582949</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.8972414952623512</v>
+        <v>0.8972414952623511</v>
       </c>
       <c r="C487">
-        <v>0.6972880768587876</v>
+        <v>0.6972880768587875</v>
       </c>
       <c r="D487">
-        <v>0.7113070732643785</v>
+        <v>0.7113070732643786</v>
       </c>
       <c r="E487">
-        <v>0.7286405547122646</v>
+        <v>0.7286405547122645</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8656,7 +8656,7 @@
         <v>0.7262912185396493</v>
       </c>
       <c r="D488">
-        <v>0.7235990087090689</v>
+        <v>0.723599008709069</v>
       </c>
       <c r="E488">
         <v>0.7314635479249727</v>
@@ -8670,7 +8670,7 @@
         <v>0.931254080841638</v>
       </c>
       <c r="C489">
-        <v>0.7262912185396493</v>
+        <v>0.7262912185396494</v>
       </c>
       <c r="D489">
         <v>0.7235990087090689</v>
@@ -8690,7 +8690,7 @@
         <v>0.9527483329317457</v>
       </c>
       <c r="D490">
-        <v>0.9388930854102204</v>
+        <v>0.9388930854102203</v>
       </c>
       <c r="E490">
         <v>0.903454464569669</v>
@@ -8860,7 +8860,7 @@
         <v>1.035809687716325</v>
       </c>
       <c r="D500">
-        <v>0.9712839797233334</v>
+        <v>0.9712839797233332</v>
       </c>
       <c r="E500">
         <v>0.8964962468475599</v>
